--- a/round1984.xlsx
+++ b/round1984.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa5fe2a5bf147a6/Desktop/Green LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4DA82427541F7ACA7EB8BAF849363E6BE8DE10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E2BDE9-ACA0-4C10-B53E-984E0B617E75}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DA82427541F7ACA7EB8BAF849363E6BE8DE10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB8F792-12DA-4658-A480-3C53AABE5B6E}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -522,12 +522,12 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -919,7 +919,7 @@
       </c>
       <c r="G17">
         <f>SUM(B17:F17)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -972,7 +972,7 @@
       </c>
       <c r="G19">
         <f>SUM(B19:F19)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="B21">
         <f>(B17+B19)*$L$20</f>
-        <v>5.4999999999999993E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C21" s="8">
         <f>(C17+C19)*$L$20</f>
-        <v>6.6000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D21">
         <f>(D17+D19)*$L$20</f>
@@ -1136,11 +1136,11 @@
       </c>
       <c r="B25">
         <f>B21+(B22+B24)*$L$2*$N$2</f>
-        <v>5.4999999999999993E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C25" s="4">
         <f>C21+(C22+C24)*$L$2*$N$2</f>
-        <v>6.6618110077821008E-2</v>
+        <v>7.7618110077821004E-2</v>
       </c>
       <c r="D25" s="4">
         <f>D21+(D22+D24)*$L$2*$N$2</f>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="B26">
         <f>B25*$L$25</f>
-        <v>11.934999999999999</v>
+        <v>9.548</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" ref="C26:F26" si="6">C25*$L$25</f>
-        <v>14.456129886887158</v>
+        <v>16.843129886887159</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="6"/>

--- a/round1984.xlsx
+++ b/round1984.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa5fe2a5bf147a6/Desktop/Green LLM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheun\Desktop\Green LLM\New folder\Green-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DA82427541F7ACA7EB8BAF849363E6BE8DE10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB8F792-12DA-4658-A480-3C53AABE5B6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F17326-6393-4E21-92FD-AF829C043970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Tasks</t>
   </si>
@@ -53,18 +53,9 @@
     <t>D</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>All Tasks</t>
-  </si>
-  <si>
     <t>Mean Time Spent(Seconds)</t>
   </si>
   <si>
-    <t>Background energy consumption(kwh)</t>
-  </si>
-  <si>
     <t>Mean Python Runtime (millisec)</t>
   </si>
   <si>
@@ -162,6 +153,33 @@
   </si>
   <si>
     <t>Estimated time spent on adding the missing functionalities(Sec)</t>
+  </si>
+  <si>
+    <t>Coding energy consumption(kwh)</t>
+  </si>
+  <si>
+    <t>CEC-TTEC ratio</t>
+  </si>
+  <si>
+    <t>DEC-TTEC ratio</t>
+  </si>
+  <si>
+    <t>TEC-TTEC ratio</t>
+  </si>
+  <si>
+    <t>Energy Spent on producing the insight(kwh)</t>
+  </si>
+  <si>
+    <t>Energy Spent on adding the missing functionalities(kwh)</t>
+  </si>
+  <si>
+    <t>ESPI - TTEC ratio</t>
+  </si>
+  <si>
+    <t>ESAF - TTEC ratio</t>
+  </si>
+  <si>
+    <t>QEC - TTEC ratio</t>
   </si>
 </sst>
 </file>
@@ -217,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -234,6 +252,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -250,10 +269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,13 +536,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -546,22 +561,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>805</v>
@@ -575,13 +584,6 @@
       <c r="E2">
         <v>2146</v>
       </c>
-      <c r="F2">
-        <v>3299</v>
-      </c>
-      <c r="G2">
-        <f>SUM(B2:F2)</f>
-        <v>9490</v>
-      </c>
       <c r="L2">
         <v>4.0750000000000002</v>
       </c>
@@ -591,14 +593,14 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3">
         <f>$L$2*B2*$N$2</f>
         <v>9.1121600674999993E-4</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:F3" si="0">$L$2*C2*$N$2</f>
+        <f t="shared" ref="C3:E3" si="0">$L$2*C2*$N$2</f>
         <v>1.6266054679500001E-3</v>
       </c>
       <c r="D3" s="3">
@@ -609,18 +611,12 @@
         <f t="shared" si="0"/>
         <v>2.4291547211000002E-3</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>3.73428770965E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM(B3:F3)</f>
-        <v>1.0742161371499999E-2</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>88.98</v>
@@ -634,17 +630,12 @@
       <c r="E4" s="5">
         <v>417.92</v>
       </c>
-      <c r="F4" s="5">
-        <v>841.11</v>
-      </c>
-      <c r="G4" s="5">
-        <f>AVERAGE(B4:F4)</f>
-        <v>357.78000000000003</v>
-      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <f>1255280/1000</f>
@@ -662,18 +653,12 @@
         <f>31402888/1000</f>
         <v>31402.887999999999</v>
       </c>
-      <c r="F5" s="5">
-        <f>21743316/1000</f>
-        <v>21743.315999999999</v>
-      </c>
-      <c r="G5" s="5">
-        <f>AVERAGE(B5:F5)</f>
-        <v>16985.276399999999</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -687,17 +672,10 @@
       <c r="E6">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <f>AVERAGE(B6:F6)</f>
-        <v>14</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -711,17 +689,10 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <f>AVERAGE(B7:F7)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1.97</v>
@@ -735,24 +706,18 @@
       <c r="E8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F8">
-        <v>3.04</v>
-      </c>
-      <c r="G8" s="6">
-        <f>AVERAGE(B8:F8)</f>
-        <v>2.4</v>
-      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <f>(B6+B7*(B5/(1024*1024)/$L$13))*(B4/1000)*B8*$N$2</f>
         <v>6.8170807092198554E-7</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:F9" si="1">(C6+C7*(C5/(1024*1024)/$L$13))*(C4/1000)*C8*$N$2</f>
+        <f t="shared" ref="C9:E9" si="1">(C6+C7*(C5/(1024*1024)/$L$13))*(C4/1000)*C8*$N$2</f>
         <v>1.3740039885439116E-6</v>
       </c>
       <c r="D9" s="3">
@@ -763,25 +728,19 @@
         <f t="shared" si="1"/>
         <v>4.0175772341519099E-6</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>9.9493203686800717E-6</v>
-      </c>
-      <c r="G9" s="3">
-        <f>SUM(B9:F9)</f>
-        <v>1.8610466847456878E-5</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <f>(B6+B7*(B5/(1024*1024)/$L$13) -$L$2)*B2*$L$28*$L$16*$N$2</f>
         <v>9.321658237609003E-5</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:F10" si="2">(C6+C7*(C5/(1024*1024)/$L$13) -$L$2)*C2*$L$28*$L$16*$N$2</f>
+        <f t="shared" ref="C10:E10" si="2">(C6+C7*(C5/(1024*1024)/$L$13) -$L$2)*C2*$L$28*$L$16*$N$2</f>
         <v>1.6641749205524573E-4</v>
       </c>
       <c r="D10" s="3">
@@ -792,18 +751,12 @@
         <f t="shared" si="2"/>
         <v>2.4877029116712111E-4</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>3.8229630005664757E-4</v>
-      </c>
-      <c r="G10" s="3">
-        <f>SUM(B10:F10)</f>
-        <v>1.0996718039657416E-3</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7">
         <f>SUM(B3,B9,B10)</f>
@@ -821,453 +774,531 @@
         <f>SUM(E3,E9,E10)</f>
         <v>2.681942589501273E-3</v>
       </c>
-      <c r="F11" s="7">
-        <f>SUM(F3,F9,F10)</f>
-        <v>4.1265333300753273E-3</v>
-      </c>
-      <c r="G11" s="7">
-        <f>SUM(B11:F11)</f>
-        <v>1.1860443642313197E-2</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="12">
+        <f>B3/B11</f>
+        <v>0.90657948980641456</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" ref="C12:F12" si="3">C3/C11</f>
+        <v>0.90649142892532764</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.90607632195891175</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.90574448931500784</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8"/>
+      <c r="L12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="12">
+        <f>B10/B11</f>
+        <v>9.2742270840287036E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:F13" si="4">C10/C11</f>
+        <v>9.2742851996834796E-2</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="4"/>
+        <v>9.277477362080791E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="4"/>
+        <v>9.275750053001014E-2</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="L13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="12">
+        <f>B9/B11</f>
+        <v>6.7823935329850782E-4</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14:F14" si="5">C9/C11</f>
+        <v>7.6571907783759877E-4</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="5"/>
+        <v>1.1489044202803486E-3</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="5"/>
+        <v>1.498010154982105E-3</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
         <f>$L$25*B11</f>
         <v>0.21810980249175158</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C15" s="4">
         <f>$L$25*C11</f>
         <v>0.38938414118665238</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D15" s="4">
         <f>$L$25*D11</f>
         <v>0.48878305215543777</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E15" s="4">
         <f>$L$25*E11</f>
         <v>0.5819815419217762</v>
       </c>
-      <c r="F12" s="4">
-        <f>$L$25*F11</f>
-        <v>0.89545773262634598</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(B12:F12)</f>
-        <v>2.573716270381964</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
       <c r="L16" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <f>SUM(B17:F17)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="L20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
         <f>2/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F18" s="10">
-        <f>2/243</f>
-        <v>8.23045267489712E-3</v>
-      </c>
-      <c r="G18" s="10">
-        <f>AVERAGE(B18:F18)</f>
-        <v>0.21831275720164606</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="G21" s="8"/>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <f>SUM(B19:F19)</f>
-        <v>11</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="L22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C23" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D23" s="10">
         <f>8/11</f>
         <v>0.72727272727272729</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E23" s="10">
         <f>(6.5% + 100% + 100%)/3</f>
         <v>0.68833333333333335</v>
       </c>
-      <c r="F20" s="10">
-        <f>2/243</f>
-        <v>8.23045267489712E-3</v>
-      </c>
-      <c r="G20" s="10">
-        <f>AVERAGE(B20:F20)</f>
-        <v>0.68476730265619168</v>
-      </c>
-      <c r="L20">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21">
-        <f>(B17+B19)*$L$20</f>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <f>(B20+B22)*$L$20</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C21" s="8">
-        <f>(C17+C19)*$L$20</f>
+      <c r="C24" s="8">
+        <f>(C20+C22)*$L$20</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D21">
-        <f>(D17+D19)*$L$20</f>
+      <c r="D24">
+        <f>(D20+D22)*$L$20</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E21" s="8">
-        <f>(E17+E19)*$L$20</f>
+      <c r="E24" s="8">
+        <f>(E20+E22)*$L$20</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21" si="3">(F17+F19)*$L$20</f>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" ref="G21:G26" si="4">SUM(B21:F21)</f>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <f>C2*$L$36*(1-C18)</f>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <f>C2*$L$36*(1-C21)</f>
         <v>546.06000000000006</v>
       </c>
-      <c r="D22" s="5">
-        <f>D2*$L$36*(1-D18)</f>
+      <c r="D25" s="5">
+        <f>D2*$L$36*(1-D21)</f>
         <v>685.14</v>
       </c>
-      <c r="E22" s="5">
-        <f>E2*$L$36*(1-E18)</f>
+      <c r="E25" s="5">
+        <f>E2*$L$36*(1-E21)</f>
         <v>747.52333333333331</v>
       </c>
-      <c r="F22" s="5">
-        <f>F2*$L$36*(1-F18)</f>
-        <v>1243.3021399176957</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="4"/>
-        <v>3222.0254732510293</v>
-      </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="L25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
         <f>($L$32+$L$34)*(D2*$L$28)</f>
         <v>302.904</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E26" s="5">
         <f>($L$32+$L$34)*(E2*$L$28)</f>
         <v>360.52800000000002</v>
       </c>
-      <c r="F23" s="5">
-        <f>($L$32+$L$34)*(F2*$L$28)</f>
-        <v>554.23199999999997</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="4"/>
-        <v>1217.664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24">
-        <f>(1-B20)*B2+B23</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <f>(1-C20)*C2+C23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <f>(1-D20)*D2+D23 - D22</f>
+      <c r="F26" s="8"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <f>(1-B23)*B2+B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>(1-C23)*C2+C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <f>(1-D23)*D2+D26 - D25</f>
         <v>109.49127272727276</v>
       </c>
-      <c r="E24" s="5">
-        <f>(1-E20)*E2+E23 - E22</f>
+      <c r="E27" s="5">
+        <f>(1-E23)*E2+E26 - E25</f>
         <v>281.8413333333333</v>
       </c>
-      <c r="F24" s="5">
-        <f>(1-F20)*F2+F23 - F22</f>
-        <v>2582.7775967078187</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="4"/>
-        <v>2974.1102027684246</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <f>B21+(B22+B24)*$L$2*$N$2</f>
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C25" s="4">
-        <f>C21+(C22+C24)*$L$2*$N$2</f>
-        <v>7.7618110077821004E-2</v>
-      </c>
-      <c r="D25" s="4">
-        <f>D21+(D22+D24)*$L$2*$N$2</f>
-        <v>8.8899479174128215E-2</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ref="E25:F25" si="5">E21+(E22+E24)*$L$2*$N$2</f>
-        <v>8.9165184547887633E-2</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="5"/>
-        <v>9.2330913166602469E-2</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="4"/>
-        <v>0.39201368696643935</v>
-      </c>
-      <c r="L25">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <f>B25*$L$25</f>
-        <v>9.548</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" ref="C26:F26" si="6">C25*$L$25</f>
-        <v>16.843129886887159</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B25*$L$2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:F28" si="6">C25*$L$2*$N$2</f>
+        <v>6.1811007782100014E-4</v>
+      </c>
+      <c r="D28" s="3">
+        <f>D25*$L$2*$N$2</f>
+        <v>7.7554103709900001E-4</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="6"/>
-        <v>19.291186980785824</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="6"/>
-        <v>19.348845046891615</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="6"/>
-        <v>20.035808157152736</v>
-      </c>
-      <c r="G26" s="11">
-        <f t="shared" si="4"/>
-        <v>85.066970071717321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.4615556118316669E-4</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="L28" s="9">
         <v>0.42</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27*$L$2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29:E29" si="7">C27*$L$2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2393813702921822E-4</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1902898670446662E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="12">
+        <f>B24/B33</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" ref="C30:E30" si="8">C24/C33</f>
+        <v>0.99203652244042939</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="8"/>
+        <v>0.98988206474903639</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="8"/>
+        <v>0.98693229253328296</v>
+      </c>
+    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="12">
+        <f>B28/B33</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <f>C28/C33</f>
+        <v>7.9634775595704959E-3</v>
+      </c>
+      <c r="D31" s="12">
+        <f>D28/D33</f>
+        <v>8.7237973079678094E-3</v>
+      </c>
+      <c r="E31" s="12">
+        <f>E28/E33</f>
+        <v>9.489752816344196E-3</v>
+      </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="12">
+        <f>B29/B33</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:E32" si="9">C29/C33</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="9"/>
+        <v>1.3941379429958129E-3</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="9"/>
+        <v>3.5779546503728354E-3</v>
+      </c>
       <c r="L32" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <f>B24+(B25+B27)*$L$2*$N$2</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C33" s="4">
+        <f>C24+(C25+C27)*$L$2*$N$2</f>
+        <v>7.7618110077821004E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D24+(D25+D27)*$L$2*$N$2</f>
+        <v>8.8899479174128215E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f>E24+(E25+E27)*$L$2*$N$2</f>
+        <v>8.9165184547887633E-2</v>
+      </c>
       <c r="L33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <f>B33*$L$25</f>
+        <v>9.548</v>
+      </c>
+      <c r="C34" s="8">
+        <f>C33*$L$25</f>
+        <v>16.843129886887159</v>
+      </c>
+      <c r="D34" s="8">
+        <f>D33*$L$25</f>
+        <v>19.291186980785824</v>
+      </c>
+      <c r="E34" s="8">
+        <f>E33*$L$25</f>
+        <v>19.348845046891615</v>
+      </c>
       <c r="L34" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L36" s="10">
         <v>0.38</v>
       </c>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L39">
         <v>52812500</v>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L42">
         <v>10000000</v>
       </c>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L44">
         <f>L42*20*30</f>
         <v>6000000000</v>
       </c>
     </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L47">
         <f>L39/L44</f>
         <v>8.8020833333333336E-3</v>
